--- a/medicine/Psychotrope/Brauerei_Grohe/Brauerei_Grohe.xlsx
+++ b/medicine/Psychotrope/Brauerei_Grohe/Brauerei_Grohe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brauerei Grohe est une brasserie à Darmstadt.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'en 1899, la brasserie s'appelle Zum Erbacher Hof. Le nouveau propriétaire Gabriel Grohe lui donne son nom. Après la destruction totale de la brasserie au cours de la Seconde Guerre mondiale lors d'un raid aérien en septembre 1944 comme la majorité de Darmstadt, elle recommence à brasser en 1948. La brasserie est reprise à Maria Grohe, la petite-fille du fondateur Gabriel Grohe, par Wolfgang Koehler, le propriétaire de Darmstädter Privatbrauerei.
 C'est l'une des rares brasseries commercialement prospères qui brassent encore à la main, donc sans l'utilisation du contrôle par ordinateur. Les bâtiments de la brasserie sont des bâtiments classés.
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Grohe Hell (jusque vers le printemps 2008 sous le nom d'Export)
 Grohe Märzen
